--- a/biology/Botanique/Magnum_(bouteille)/Magnum_(bouteille).xlsx
+++ b/biology/Botanique/Magnum_(bouteille)/Magnum_(bouteille).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le magnum est une bouteille en verre conçue pour contenir l'équivalent de deux bouteilles de 75 cl, soit un litre et demi, de vin ou de bière.
 Les magnums sont particulièrement appréciés lors des grands événements publics ou en tant que cadeaux, tant d'entreprise qu'à un particulier.
